--- a/luban/MiniTemplate/Datas/uiconfig.xlsx
+++ b/luban/MiniTemplate/Datas/uiconfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="17250" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -72,7 +72,7 @@
     <t>hiden_other</t>
   </si>
   <si>
-    <t>background</t>
+    <t>bg_alpha</t>
   </si>
   <si>
     <t>click_cross</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##group</t>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1218,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1244,48 +1247,48 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1299,16 +1302,25 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1320,6 +1332,15 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
@@ -1328,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1351,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1374,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1397,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1420,10 +1441,10 @@
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1443,10 +1464,10 @@
         <v>1001</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>7</v>

--- a/luban/MiniTemplate/Datas/uiconfig.xlsx
+++ b/luban/MiniTemplate/Datas/uiconfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17250" windowHeight="5805"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1366,8 +1366,17 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1389,8 +1398,17 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1412,8 +1430,17 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1435,8 +1462,17 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>1000</v>
       </c>
@@ -1458,8 +1494,17 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>1001</v>
       </c>
@@ -1479,6 +1524,15 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
     </row>

--- a/luban/MiniTemplate/Datas/uiconfig.xlsx
+++ b/luban/MiniTemplate/Datas/uiconfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -69,7 +69,7 @@
     <t>is_full</t>
   </si>
   <si>
-    <t>hiden_other</t>
+    <t>hidden_other</t>
   </si>
   <si>
     <t>bg_alpha</t>
@@ -81,6 +81,9 @@
     <t>click_close</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -132,36 +138,54 @@
     <t>点击任意地方关闭</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>Main</t>
   </si>
   <si>
     <t>UIMain</t>
   </si>
   <si>
+    <t>/apple</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
     <t>UILogin</t>
   </si>
   <si>
+    <t>/abc</t>
+  </si>
+  <si>
     <t>Hero</t>
   </si>
   <si>
     <t>UIHero</t>
   </si>
   <si>
+    <t>/def</t>
+  </si>
+  <si>
     <t>Bag</t>
   </si>
   <si>
     <t>UIBag</t>
   </si>
   <si>
+    <t>key_name</t>
+  </si>
+  <si>
     <t>Shop</t>
   </si>
   <si>
     <t>UIShop</t>
   </si>
   <si>
+    <t>test/a</t>
+  </si>
+  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -172,6 +196,9 @@
   </si>
   <si>
     <t>UILoading</t>
+  </si>
+  <si>
+    <t>/banana</t>
   </si>
   <si>
     <t>NetError</t>
@@ -1140,7 +1167,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1160,7 +1187,7 @@
     <col min="15" max="15" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,45 +1221,51 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1244,51 +1277,55 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1311,16 +1348,19 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1343,16 +1383,19 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1375,16 +1418,19 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1407,16 +1453,19 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1439,16 +1488,19 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1471,16 +1523,19 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1503,16 +1558,19 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>1001</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1534,6 +1592,9 @@
       </c>
       <c r="K12">
         <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="16:17">

--- a/luban/MiniTemplate/Datas/uiconfig.xlsx
+++ b/luban/MiniTemplate/Datas/uiconfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -81,9 +81,6 @@
     <t>click_close</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -138,54 +132,36 @@
     <t>点击任意地方关闭</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
     <t>UIMain</t>
   </si>
   <si>
-    <t>/apple</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>UILogin</t>
   </si>
   <si>
-    <t>/abc</t>
-  </si>
-  <si>
     <t>Hero</t>
   </si>
   <si>
     <t>UIHero</t>
   </si>
   <si>
-    <t>/def</t>
-  </si>
-  <si>
     <t>Bag</t>
   </si>
   <si>
     <t>UIBag</t>
   </si>
   <si>
-    <t>key_name</t>
-  </si>
-  <si>
     <t>Shop</t>
   </si>
   <si>
     <t>UIShop</t>
   </si>
   <si>
-    <t>test/a</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
   </si>
   <si>
     <t>UILoading</t>
-  </si>
-  <si>
-    <t>/banana</t>
   </si>
   <si>
     <t>NetError</t>
@@ -1164,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1183,11 +1156,11 @@
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="9.625" customWidth="1"/>
     <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,51 +1194,45 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1277,55 +1244,51 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1348,19 +1311,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1383,19 +1343,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1418,19 +1375,16 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1453,19 +1407,16 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1488,19 +1439,16 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1523,19 +1471,16 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1558,19 +1503,16 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>1001</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1593,16 +1535,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="13" spans="16:17">
+    <row r="13" spans="15:16">
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
     </row>
-    <row r="15" spans="14:14">
-      <c r="N15" s="3"/>
+    <row r="15" spans="13:13">
+      <c r="M15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
